--- a/documentation/Journaux/3_1_Gabriel_Journal.xlsx
+++ b/documentation/Journaux/3_1_Gabriel_Journal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11214"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/gabriel_beer_studentfr_ch/Documents/EMF/Informatique EMF/Troisième année/306/306project-G4/documentation/Journal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/gabriel_beer_studentfr_ch/Documents/EMF/Informatique EMF/Troisième année/306/306project-G4/documentation/Journaux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A8C1DBE-08EE-1A4C-A8D5-8100F7C13814}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B24ACDD9-71C1-324B-81BB-7A70AE8EE8DB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Journal Gabriel'!$A$5:$HI$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Journal Gabriel'!$B:$D,'Journal Gabriel'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Journal Gabriel'!$A$1:$D$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Journal Gabriel'!$A$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -142,6 +142,27 @@
   </si>
   <si>
     <t>J'ai eu pas mal de problèmes au niveau du deploiement du front end avec des problèmes de sites inaccessibles mais dans l'ensemble au niveau de scrum les choses rentrent gentiment dans l'ordre et le module devrait bien se finir.</t>
+  </si>
+  <si>
+    <t>Création de la page de login et de la page de register</t>
+  </si>
+  <si>
+    <t>Création du coté backend/db pour le login et register</t>
+  </si>
+  <si>
+    <t>Correction du planning</t>
+  </si>
+  <si>
+    <t>Modification des classes pour que l'on puisse changer le nom de la salle et qu'elle garde ses capteur (id de salle)</t>
+  </si>
+  <si>
+    <t>Création de taches pour le tableau kanban (product owner)</t>
+  </si>
+  <si>
+    <t>Regler problèmes avec la db qui ne marchait plus</t>
+  </si>
+  <si>
+    <t>On a eu pas mal de problèmes avec la db car un membre du groupe avait créer une requete pour afficher un graphique de l'historique mais la requête chargais 10k+ d'enregistrement par refresh et ces refresh étaient automatiquement faits toutes les 30 secondes ce qui fait que l'on a dépassés extremement rapidement la bande passante gratuite par mois il a fallu donc migrer la db et corriger le code qui faisais ces appels inutils. Sinon dans l'ensemble j'ai été efficace et j'ai pris de l'avance sur ce qu'on avait planifié pour le sprint</t>
   </si>
 </sst>
 </file>
@@ -487,6 +508,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -519,68 +596,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -588,17 +609,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -618,17 +628,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -815,6 +814,17 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -827,6 +837,17 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1239,12 +1260,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971094A1-2086-4124-85CF-EAAE0115819F}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27:C27"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1257,85 +1278,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20">
+      <c r="A6" s="34">
         <v>46000</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1348,63 +1369,63 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46006</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1417,59 +1438,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29">
+      <c r="A20" s="14">
         <v>46007</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1482,497 +1503,460 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="14">
+        <v>45996</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="8"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="8"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="9">
-        <f>SUM(D27:D31)</f>
+      <c r="D33" s="9">
+        <f>SUM(D27:D32)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="16"/>
+      <c r="B34" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="9">
+        <f>SUM(D35:D39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
-      <c r="B39" s="2" t="s">
+    <row r="41" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="16"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="15"/>
+      <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="9">
-        <f>SUM(D34:D38)</f>
+      <c r="D47" s="9">
+        <f>SUM(D42:D46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
-      <c r="B46" s="2" t="s">
+    <row r="48" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="16"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="15"/>
+      <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="9">
-        <f>SUM(D41:D45)</f>
+      <c r="D54" s="9">
+        <f>SUM(D49:D53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="21"/>
-      <c r="B53" s="2" t="s">
+    <row r="55" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="16"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="15"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="15"/>
+      <c r="B61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="9">
-        <f>SUM(D48:D52)</f>
+      <c r="D61" s="9">
+        <f>SUM(D56:D60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="21"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="21"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
-      <c r="B60" s="2" t="s">
+    <row r="62" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="16"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="15"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="15"/>
+      <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="9">
-        <f>SUM(D55:D59)</f>
+      <c r="D68" s="9">
+        <f>SUM(D63:D67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="32"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="21"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="21"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="21"/>
-      <c r="B67" s="2" t="s">
+    <row r="69" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="15"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
+    </row>
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="15"/>
+      <c r="B75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="9">
-        <f>SUM(D62:D66)</f>
+      <c r="D75" s="9">
+        <f>SUM(D70:D74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="21"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="29"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="21"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="21"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="21"/>
-      <c r="B74" s="2" t="s">
+    <row r="76" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="16"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="15"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="15"/>
+      <c r="B82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="9">
-        <f>SUM(D69:D73)</f>
+      <c r="D82" s="9">
+        <f>SUM(D77:D81)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="32"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="29"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="21"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="21"/>
-      <c r="B81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="9">
-        <f>SUM(D76:D80)</f>
+    <row r="83" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="16"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
+    </row>
+    <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="11"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="12">
+        <f>D11+D18+D25+D33+D40+D47+D54+D61+D68+D75+D82</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="32"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="11"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="12">
-        <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
+  <mergeCells count="83">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1984,6 +1968,78 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -1994,11 +2050,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
@@ -2009,7 +2065,7 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D32">
+  <conditionalFormatting sqref="D27:D33">
     <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
@@ -2017,68 +2073,68 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D39">
+  <conditionalFormatting sqref="D35:D40">
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D46">
+  <conditionalFormatting sqref="D42:D47">
     <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D53">
+  <conditionalFormatting sqref="D49:D54">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D49)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D60">
+  <conditionalFormatting sqref="D56:D61">
     <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D56)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D67">
+  <conditionalFormatting sqref="D63:D68">
     <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D63)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D74">
+  <conditionalFormatting sqref="D70:D75">
     <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76:D81">
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
+  <conditionalFormatting sqref="D77:D82">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2090,8 +2146,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="47" max="16383" man="1"/>
-    <brk id="83" max="3" man="1"/>
+    <brk id="48" max="16383" man="1"/>
+    <brk id="84" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -2311,6 +2367,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -2319,15 +2384,6 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2350,26 +2406,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/Journaux/3_1_Gabriel_Journal.xlsx
+++ b/documentation/Journaux/3_1_Gabriel_Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/gabriel_beer_studentfr_ch/Documents/EMF/Informatique EMF/Troisième année/306/306project-G4/documentation/Journaux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B24ACDD9-71C1-324B-81BB-7A70AE8EE8DB}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCABC8EF-7E5C-CF43-94F6-ED882A8CED0E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Gabriel" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>On a eu pas mal de problèmes avec la db car un membre du groupe avait créer une requete pour afficher un graphique de l'historique mais la requête chargais 10k+ d'enregistrement par refresh et ces refresh étaient automatiquement faits toutes les 30 secondes ce qui fait que l'on a dépassés extremement rapidement la bande passante gratuite par mois il a fallu donc migrer la db et corriger le code qui faisais ces appels inutils. Sinon dans l'ensemble j'ai été efficace et j'ai pris de l'avance sur ce qu'on avait planifié pour le sprint</t>
+  </si>
+  <si>
+    <t>Nettoyage du repo, documentation, résolution de bugs</t>
+  </si>
+  <si>
+    <t>Implémentation de la gestion d'utilisateurs et des notifications</t>
+  </si>
+  <si>
+    <t>Test complet de l'API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce matin j'ai principalement réglé tous les petits détails qui marchaient pas encore tout a fait ce qui fait la différence entre une interface ok et une interface vraiment bien. J'ai également créer un script qui permet a chaque modifs du backend lors du déploiement de tester automatiquement si tous les endpoints de l'api marchent encors. J'ai fini la matinée par documenter tout le travail que j'ai fait durant le sprint. </t>
   </si>
 </sst>
 </file>
@@ -508,100 +520,100 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -609,6 +621,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -628,6 +651,17 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -814,17 +848,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -837,17 +860,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1263,9 +1275,9 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft"/>
+      <pane ySplit="1" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35:C35"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1278,85 +1290,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="34">
+      <c r="A6" s="20">
         <v>46000</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1369,63 +1381,63 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14">
+      <c r="A13" s="29">
         <v>46006</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1438,59 +1450,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14">
+      <c r="A20" s="29">
         <v>46007</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1503,77 +1515,77 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14">
+      <c r="A27" s="29">
         <v>45996</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1586,45 +1598,57 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="8"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1633,47 +1657,49 @@
       </c>
       <c r="D40" s="9">
         <f>SUM(D35:D39)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="16"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="15"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
@@ -1686,43 +1712,43 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="15"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="15"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1735,43 +1761,43 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="15"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="15"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="15"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="2" t="s">
         <v>8</v>
       </c>
@@ -1784,43 +1810,43 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="16"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="15"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="15"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
@@ -1833,43 +1859,43 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="15"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="15"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="15"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="2" t="s">
         <v>8</v>
       </c>
@@ -1882,43 +1908,43 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="16"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="35"/>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="15"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="15"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="2" t="s">
         <v>8</v>
       </c>
@@ -1931,10 +1957,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="16"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="35"/>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
@@ -1944,19 +1970,91 @@
       </c>
       <c r="D84" s="12">
         <f>D11+D18+D25+D33+D40+D47+D54+D61+D68+D75+D82</f>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1968,78 +2066,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:D83"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2050,11 +2076,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
@@ -2122,19 +2148,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D82">
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D84)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2154,6 +2180,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2366,27 +2412,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2403,29 +2454,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/Journaux/3_1_Gabriel_Journal.xlsx
+++ b/documentation/Journaux/3_1_Gabriel_Journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10102"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/gabriel_beer_studentfr_ch/Documents/EMF/Informatique EMF/Troisième année/306/306project-G4/documentation/Journaux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCABC8EF-7E5C-CF43-94F6-ED882A8CED0E}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A46A9F04-BA57-1446-ACFB-6C197C8FD238}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46980" yWindow="-13680" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal Gabriel" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ce matin j'ai principalement réglé tous les petits détails qui marchaient pas encore tout a fait ce qui fait la différence entre une interface ok et une interface vraiment bien. J'ai également créer un script qui permet a chaque modifs du backend lors du déploiement de tester automatiquement si tous les endpoints de l'api marchent encors. J'ai fini la matinée par documenter tout le travail que j'ai fait durant le sprint. </t>
+  </si>
+  <si>
+    <t>Malade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation </t>
+  </si>
+  <si>
+    <t>Paufinement de l'interface et résolution des derniers petits bug</t>
+  </si>
+  <si>
+    <t>Pas grand-chose a dire, l'après midi j'étais malade et le matin c'était principalement documenter le projet et préparer la présentation</t>
   </si>
 </sst>
 </file>
@@ -520,6 +532,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -552,86 +620,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <strike val="0"/>
@@ -651,17 +652,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -848,7 +838,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -859,7 +849,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1275,9 +1265,9 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="208" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1290,85 +1280,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20">
+      <c r="A6" s="34">
         <v>46000</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1381,63 +1371,63 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46006</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1450,59 +1440,59 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29">
+      <c r="A20" s="14">
         <v>46007</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1515,77 +1505,77 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29">
-        <v>45996</v>
-      </c>
-      <c r="B27" s="30" t="s">
+      <c r="A27" s="14">
+        <v>46027</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7">
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="25"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1598,57 +1588,59 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30" t="s">
+      <c r="A35" s="14">
+        <v>46028</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="21"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1661,45 +1653,58 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="14">
+        <v>46034</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="8"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="8"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="21"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
@@ -1708,47 +1713,49 @@
       </c>
       <c r="D47" s="9">
         <f>SUM(D42:D46)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="21"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="21"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1761,43 +1768,43 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="21"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="21"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="2" t="s">
         <v>8</v>
       </c>
@@ -1810,43 +1817,43 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="29"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="21"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="21"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="21"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
@@ -1859,43 +1866,43 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="21"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="29"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="21"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="21"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="21"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="2" t="s">
         <v>8</v>
       </c>
@@ -1908,43 +1915,43 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="32"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="35"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="29"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="31"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="21"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="21"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="2" t="s">
         <v>8</v>
       </c>
@@ -1957,10 +1964,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="32"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
@@ -1970,91 +1977,19 @@
       </c>
       <c r="D84" s="12">
         <f>D11+D18+D25+D33+D40+D47+D54+D61+D68+D75+D82</f>
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2066,53 +2001,117 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:D83"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D11 D46:D47 D42:D44">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D18">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D25">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D33">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D40">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D47">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D54">
@@ -2148,19 +2147,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D82">
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D84)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2180,6 +2179,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -2188,15 +2196,6 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2413,26 +2412,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
